--- a/data/saudi_cases.xlsx
+++ b/data/saudi_cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammedalawami/Desktop/Learn Data Science/Projects/corona-data-challenge/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B06A52B-E70F-764D-A071-349EBE8832CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F827F78C-AC2E-7045-A626-98570F7BA314}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6720" yWindow="1060" windowWidth="27240" windowHeight="16440" xr2:uid="{00796E70-2CD3-5A47-B7EC-533327368A9E}"/>
+    <workbookView xWindow="9180" yWindow="460" windowWidth="27240" windowHeight="16440" xr2:uid="{00796E70-2CD3-5A47-B7EC-533327368A9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -414,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0460B6F2-318A-B747-AD31-F60A54B79F3B}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -795,6 +795,9 @@
       <c r="E19">
         <v>19</v>
       </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
@@ -812,6 +815,9 @@
       <c r="E20">
         <v>59</v>
       </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
@@ -823,6 +829,12 @@
       <c r="C21">
         <v>48</v>
       </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
@@ -834,6 +846,9 @@
       <c r="C22">
         <v>119</v>
       </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
@@ -845,6 +860,9 @@
       <c r="C23">
         <v>51</v>
       </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
@@ -861,6 +879,29 @@
       </c>
       <c r="E24">
         <v>86</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>43915</v>
+      </c>
+      <c r="B25">
+        <v>900</v>
+      </c>
+      <c r="C25">
+        <v>133</v>
+      </c>
+      <c r="D25">
+        <v>18</v>
+      </c>
+      <c r="E25">
+        <v>115</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/saudi_cases.xlsx
+++ b/data/saudi_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammedalawami/Desktop/Learn Data Science/Projects/corona-data-challenge/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F827F78C-AC2E-7045-A626-98570F7BA314}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178C3E83-4988-4341-BC5E-315225A2D916}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9180" yWindow="460" windowWidth="27240" windowHeight="16440" xr2:uid="{00796E70-2CD3-5A47-B7EC-533327368A9E}"/>
   </bookViews>
@@ -414,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0460B6F2-318A-B747-AD31-F60A54B79F3B}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -904,6 +904,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>43916</v>
+      </c>
+      <c r="B26">
+        <v>1012</v>
+      </c>
+      <c r="C26">
+        <v>112</v>
+      </c>
+      <c r="D26">
+        <v>12</v>
+      </c>
+      <c r="E26">
+        <v>100</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/saudi_cases.xlsx
+++ b/data/saudi_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammedalawami/Desktop/Learn Data Science/Projects/corona-data-challenge/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178C3E83-4988-4341-BC5E-315225A2D916}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B9AB55-C826-F944-8DC7-E513813E2F0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9180" yWindow="460" windowWidth="27240" windowHeight="16440" xr2:uid="{00796E70-2CD3-5A47-B7EC-533327368A9E}"/>
   </bookViews>
@@ -414,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0460B6F2-318A-B747-AD31-F60A54B79F3B}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -924,6 +924,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>43917</v>
+      </c>
+      <c r="B27">
+        <v>1104</v>
+      </c>
+      <c r="C27">
+        <v>92</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+      <c r="E27">
+        <v>82</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/saudi_cases.xlsx
+++ b/data/saudi_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammedalawami/Desktop/Learn Data Science/Projects/corona-data-challenge/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B9AB55-C826-F944-8DC7-E513813E2F0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5036EE-FF6F-F946-8D11-F97A0F902EC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9180" yWindow="460" windowWidth="27240" windowHeight="16440" xr2:uid="{00796E70-2CD3-5A47-B7EC-533327368A9E}"/>
   </bookViews>
@@ -414,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0460B6F2-318A-B747-AD31-F60A54B79F3B}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -944,6 +944,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>43918</v>
+      </c>
+      <c r="B28">
+        <v>1203</v>
+      </c>
+      <c r="C28">
+        <v>99</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <v>89</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/saudi_cases.xlsx
+++ b/data/saudi_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammedalawami/Desktop/Learn Data Science/Projects/corona-data-challenge/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5036EE-FF6F-F946-8D11-F97A0F902EC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7E9B6B-A93D-6E44-B9A5-122539746B75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9180" yWindow="460" windowWidth="27240" windowHeight="16440" xr2:uid="{00796E70-2CD3-5A47-B7EC-533327368A9E}"/>
   </bookViews>
@@ -414,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0460B6F2-318A-B747-AD31-F60A54B79F3B}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -964,6 +964,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>43919</v>
+      </c>
+      <c r="B29">
+        <v>1299</v>
+      </c>
+      <c r="C29">
+        <v>96</v>
+      </c>
+      <c r="D29">
+        <v>28</v>
+      </c>
+      <c r="E29">
+        <v>68</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/saudi_cases.xlsx
+++ b/data/saudi_cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammedalawami/Desktop/Learn Data Science/Projects/corona-data-challenge/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7E9B6B-A93D-6E44-B9A5-122539746B75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949EA280-8883-C045-8C7A-946C66820493}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9180" yWindow="460" windowWidth="27240" windowHeight="16440" xr2:uid="{00796E70-2CD3-5A47-B7EC-533327368A9E}"/>
+    <workbookView xWindow="6700" yWindow="1060" windowWidth="27240" windowHeight="16440" xr2:uid="{00796E70-2CD3-5A47-B7EC-533327368A9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -414,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0460B6F2-318A-B747-AD31-F60A54B79F3B}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -984,6 +984,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>43920</v>
+      </c>
+      <c r="B30">
+        <v>1453</v>
+      </c>
+      <c r="C30">
+        <v>154</v>
+      </c>
+      <c r="D30">
+        <v>16</v>
+      </c>
+      <c r="E30">
+        <v>138</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
